--- a/data/trans_orig/P25F_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Clase-trans_orig.xlsx
@@ -788,19 +788,19 @@
         <v>5593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1331</v>
+        <v>1413</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10987</v>
+        <v>11342</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3927242491845678</v>
+        <v>0.3927242491845679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09343728481198631</v>
+        <v>0.09918639767928591</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7714788940992732</v>
+        <v>0.7964549307368747</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -809,19 +809,19 @@
         <v>4055</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6808</v>
+        <v>6958</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.498181119847808</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1063996971333329</v>
+        <v>0.1034875982098647</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8364597955498465</v>
+        <v>0.8548507768750333</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -830,19 +830,19 @@
         <v>9647</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3814</v>
+        <v>3851</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14968</v>
+        <v>16059</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4310747041068155</v>
+        <v>0.4310747041068154</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1704084046161961</v>
+        <v>0.1720781494884094</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6688203637789771</v>
+        <v>0.7175645706521364</v>
       </c>
     </row>
     <row r="6">
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6151</v>
+        <v>6003</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.08012681119443647</v>
+        <v>0.08012681119443649</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.431905552233987</v>
+        <v>0.4215527171441483</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4102</v>
+        <v>4907</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1775947044094214</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5039535040901749</v>
+        <v>0.6028704131908241</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -904,16 +904,16 @@
         <v>584</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6953</v>
+        <v>7197</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1155719938705301</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02608416914338044</v>
+        <v>0.0260725809746191</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3106967091032761</v>
+        <v>0.3215679720408881</v>
       </c>
     </row>
     <row r="7">
@@ -930,19 +930,19 @@
         <v>6727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1931</v>
+        <v>2208</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11911</v>
+        <v>11743</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4723706738859742</v>
+        <v>0.4723706738859743</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1356251903262785</v>
+        <v>0.1550666142844164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8363640987573426</v>
+        <v>0.8245733935183609</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3658</v>
+        <v>3492</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08081699511493598</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4494151146338312</v>
+        <v>0.4290889708904638</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -972,19 +972,19 @@
         <v>7385</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2582</v>
+        <v>2385</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14228</v>
+        <v>14270</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3299782283970407</v>
+        <v>0.3299782283970406</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1153518268691344</v>
+        <v>0.1065712482012426</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6357571998684145</v>
+        <v>0.6376098876494803</v>
       </c>
     </row>
     <row r="8">
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6034</v>
+        <v>4314</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05477826573502142</v>
+        <v>0.05477826573502143</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.423692244259308</v>
+        <v>0.3029395205506019</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1022,19 +1022,19 @@
         <v>1981</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5349</v>
+        <v>5137</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2434071806278346</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04402391696437921</v>
+        <v>0.03972486348940623</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6571613154604429</v>
+        <v>0.6311144842888219</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1043,19 +1043,19 @@
         <v>2761</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>587</v>
+        <v>719</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6885</v>
+        <v>7191</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1233750736256137</v>
+        <v>0.1233750736256136</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02622742817536033</v>
+        <v>0.03211064721303812</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3076291645644153</v>
+        <v>0.3213164374500331</v>
       </c>
     </row>
     <row r="9">
@@ -1163,16 +1163,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2135</v>
+        <v>2093</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06361362890837152</v>
+        <v>0.06361362890837151</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2981178197741107</v>
+        <v>0.2922231949640914</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2774</v>
+        <v>2708</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02175061431191693</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1324408191890981</v>
+        <v>0.129304732725354</v>
       </c>
     </row>
     <row r="11">
@@ -1210,19 +1210,19 @@
         <v>5565</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1494</v>
+        <v>1431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10448</v>
+        <v>10401</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4037303623170375</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1084081706888066</v>
+        <v>0.1038370824624755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7579668760580227</v>
+        <v>0.7545472582370284</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1234,16 +1234,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4125</v>
+        <v>3669</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2058766579180786</v>
+        <v>0.2058766579180785</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5759260664407607</v>
+        <v>0.5122924171546575</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1252,19 +1252,19 @@
         <v>7040</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2391</v>
+        <v>2808</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12933</v>
+        <v>12832</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3360807141455047</v>
+        <v>0.3360807141455048</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1141533658935557</v>
+        <v>0.1340655806925027</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6174393145326167</v>
+        <v>0.6126385772337125</v>
       </c>
     </row>
     <row r="12">
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6262</v>
+        <v>6827</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1415263713265347</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.454310367499728</v>
+        <v>0.495278870983192</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1302,19 +1302,19 @@
         <v>1779</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>306</v>
+        <v>452</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4124</v>
+        <v>3980</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2483338915172143</v>
+        <v>0.2483338915172142</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04277601882700154</v>
+        <v>0.0631311852000886</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.575867012034755</v>
+        <v>0.5556823246084174</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1323,19 +1323,19 @@
         <v>3729</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1218</v>
+        <v>1392</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8308</v>
+        <v>8627</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1780457338773799</v>
+        <v>0.17804573387738</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05817333167865059</v>
+        <v>0.06644652174274479</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3966336026349901</v>
+        <v>0.4118806744690338</v>
       </c>
     </row>
     <row r="13">
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6337</v>
+        <v>5669</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08862652678892437</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4597523219341237</v>
+        <v>0.4113006753256247</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3365</v>
+        <v>3098</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1123214715760979</v>
+        <v>0.1123214715760978</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4697728242866766</v>
+        <v>0.4325282713698385</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6708</v>
+        <v>6491</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09672824357590919</v>
+        <v>0.09672824357590921</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3202722466275389</v>
+        <v>0.3098825955605923</v>
       </c>
     </row>
     <row r="14">
@@ -1423,19 +1423,19 @@
         <v>5047</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1133</v>
+        <v>1050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10076</v>
+        <v>9744</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3661167395675034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08221983162546996</v>
+        <v>0.07615130442078015</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7309847925210841</v>
+        <v>0.7068800793778558</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1444,19 +1444,19 @@
         <v>2649</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>801</v>
+        <v>753</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4945</v>
+        <v>4982</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3698543500802379</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1117809625854664</v>
+        <v>0.1051610040945113</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6903990323920999</v>
+        <v>0.6956764677588557</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1465,19 +1465,19 @@
         <v>7695</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3297</v>
+        <v>3750</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13036</v>
+        <v>12815</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3673946940892892</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1574243606302977</v>
+        <v>0.1790348066168166</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6223804528237922</v>
+        <v>0.6118321971608701</v>
       </c>
     </row>
     <row r="15">
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4526</v>
+        <v>5836</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1210003177659519</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4959609896174891</v>
+        <v>0.6395766168711348</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4922</v>
+        <v>5942</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07691197374092403</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3428845075520198</v>
+        <v>0.4139393620892161</v>
       </c>
     </row>
     <row r="17">
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4755</v>
+        <v>4734</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1253123105703347</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.521143755609227</v>
+        <v>0.5187905410453137</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3045</v>
+        <v>3221</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1416230692706796</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5823006154767706</v>
+        <v>0.615787268505112</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6020</v>
+        <v>6246</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1312553886891954</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4193629099717606</v>
+        <v>0.435139049980894</v>
       </c>
     </row>
     <row r="18">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5640</v>
+        <v>5735</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2360972386267909</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6181244764531371</v>
+        <v>0.6284599485189664</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6274</v>
+        <v>6228</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1500715448755464</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4370291925343406</v>
+        <v>0.4338235947904338</v>
       </c>
     </row>
     <row r="19">
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4801</v>
+        <v>4313</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1072367111846856</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.526103732627927</v>
+        <v>0.4726416884300947</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1790,16 +1790,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4317</v>
+        <v>4309</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3154757795205948</v>
+        <v>0.3154757795205947</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8255081513718161</v>
+        <v>0.823856200066496</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7872</v>
+        <v>7048</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1831118481574932</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5483650053364594</v>
+        <v>0.4909649373643771</v>
       </c>
     </row>
     <row r="20">
@@ -1840,16 +1840,16 @@
         <v>1175</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7180</v>
+        <v>7132</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4103534218522371</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1287274499617516</v>
+        <v>0.1287151241243224</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7868299822444441</v>
+        <v>0.7815651127718192</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1858,16 +1858,16 @@
         <v>2839</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>708</v>
+        <v>461</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>5230</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5429011512087257</v>
+        <v>0.5429011512087256</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1352949198016234</v>
+        <v>0.08810872024077657</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1879,19 +1879,19 @@
         <v>6584</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3151</v>
+        <v>2836</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10510</v>
+        <v>10316</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.458649244536841</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2195331111014984</v>
+        <v>0.1975573004017086</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7321625980770495</v>
+        <v>0.7186680541694745</v>
       </c>
     </row>
     <row r="21">
@@ -1986,16 +1986,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8381</v>
+        <v>8907</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06243675205090877</v>
+        <v>0.06243675205090879</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2012562776117192</v>
+        <v>0.2138915572932062</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5435</v>
+        <v>5544</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04393819683970093</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.217209335030542</v>
+        <v>0.2215558028896946</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2025,19 +2025,19 @@
         <v>3700</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1015</v>
+        <v>1081</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10191</v>
+        <v>9568</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0554936293572092</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01522136196262485</v>
+        <v>0.01620994882462408</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1528671285351361</v>
+        <v>0.1435180300481823</v>
       </c>
     </row>
     <row r="23">
@@ -2054,19 +2054,19 @@
         <v>16799</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7474</v>
+        <v>7828</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27133</v>
+        <v>27210</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4033904378119662</v>
+        <v>0.4033904378119663</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1794679280418631</v>
+        <v>0.1879816776699345</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.651542782310646</v>
+        <v>0.6534053104756605</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>4985</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11540</v>
+        <v>12007</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1992303619459492</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04723540540950488</v>
+        <v>0.04736810904060656</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4612125524662836</v>
+        <v>0.4798663746883496</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -2096,19 +2096,19 @@
         <v>21784</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11867</v>
+        <v>12127</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>34536</v>
+        <v>33782</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3267623747168584</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1780104408920502</v>
+        <v>0.1819081398420477</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5180367612238761</v>
+        <v>0.506730106783943</v>
       </c>
     </row>
     <row r="24">
@@ -2125,19 +2125,19 @@
         <v>10197</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3783</v>
+        <v>4049</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20681</v>
+        <v>20075</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2448514170779375</v>
+        <v>0.2448514170779376</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09084920570813909</v>
+        <v>0.09723680994816089</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4966075428910604</v>
+        <v>0.4820562563057575</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2146,19 +2146,19 @@
         <v>2940</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>637</v>
+        <v>598</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7817</v>
+        <v>8270</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1175083584191822</v>
+        <v>0.1175083584191821</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02544610219083654</v>
+        <v>0.02389479616844007</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.312399389618189</v>
+        <v>0.3304994961551142</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -2167,19 +2167,19 @@
         <v>13137</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5941</v>
+        <v>6367</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24382</v>
+        <v>23490</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1970553340669233</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08911915333376927</v>
+        <v>0.09550499895056346</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3657265376031418</v>
+        <v>0.3523518682646704</v>
       </c>
     </row>
     <row r="25">
@@ -2209,19 +2209,19 @@
         <v>7778</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3112</v>
+        <v>3584</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13997</v>
+        <v>14914</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3108353109679904</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1243876013391964</v>
+        <v>0.1432391326923672</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5593812623810058</v>
+        <v>0.5960337621903563</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -2230,19 +2230,19 @@
         <v>7778</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3028</v>
+        <v>2860</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16572</v>
+        <v>16915</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1166668248922183</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04542583197275799</v>
+        <v>0.04289616429856968</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2485732087613693</v>
+        <v>0.2537302795659599</v>
       </c>
     </row>
     <row r="26">
@@ -2259,19 +2259,19 @@
         <v>12049</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5608</v>
+        <v>5439</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21475</v>
+        <v>21618</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2893213930591874</v>
+        <v>0.2893213930591875</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1346542873123028</v>
+        <v>0.130613313406689</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5156787272606952</v>
+        <v>0.5191257018642838</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2280,19 +2280,19 @@
         <v>8219</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3797</v>
+        <v>3520</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14659</v>
+        <v>15002</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3284877718271773</v>
+        <v>0.3284877718271772</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1517569692032771</v>
+        <v>0.1406798790712119</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5858537990291843</v>
+        <v>0.5995721725361014</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -2301,19 +2301,19 @@
         <v>20268</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10876</v>
+        <v>11802</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>30992</v>
+        <v>31558</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3040218369667907</v>
+        <v>0.3040218369667908</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1631425871604717</v>
+        <v>0.1770244697653842</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4648769177433927</v>
+        <v>0.4733696741706587</v>
       </c>
     </row>
     <row r="27">
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2933</v>
+        <v>3621</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09389102443145708</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4517350300138975</v>
+        <v>0.5577054382914201</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3212</v>
+        <v>5050</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02881423394859669</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1518103626567969</v>
+        <v>0.2387103931761904</v>
       </c>
     </row>
     <row r="29">
@@ -2468,19 +2468,19 @@
         <v>8491</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3055</v>
+        <v>1810</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13015</v>
+        <v>12937</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5790475862218216</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2083338699931486</v>
+        <v>0.1234487992221298</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8875807297252706</v>
+        <v>0.882264972554363</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2489,19 +2489,19 @@
         <v>2491</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5413</v>
+        <v>5409</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3837516847554706</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06648329687384685</v>
+        <v>0.06622187416554548</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8337669025014461</v>
+        <v>0.833210078128146</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -2510,19 +2510,19 @@
         <v>10982</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4958</v>
+        <v>4950</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>16427</v>
+        <v>16563</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5191131907018154</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2343847175771423</v>
+        <v>0.2339985059373706</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7764909608256789</v>
+        <v>0.7829310807910159</v>
       </c>
     </row>
     <row r="30">
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8838</v>
+        <v>7630</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1735992457297332</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6027554676752257</v>
+        <v>0.5203243401437242</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4424</v>
+        <v>4414</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1841284196299077</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.68144901032289</v>
+        <v>0.6799235347476147</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2581,19 +2581,19 @@
         <v>3741</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1029</v>
+        <v>1049</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>9581</v>
+        <v>9684</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1768305458660585</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04865518741512479</v>
+        <v>0.04960842960875658</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4529136687724132</v>
+        <v>0.4577485914518645</v>
       </c>
     </row>
     <row r="31">
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7444</v>
+        <v>7996</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1326063523821514</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5076465681444734</v>
+        <v>0.5453150966954248</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8230</v>
+        <v>9354</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09191076423891251</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3890478298322987</v>
+        <v>0.4421555543525613</v>
       </c>
     </row>
     <row r="32">
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5703</v>
+        <v>6764</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1147468156662937</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3889068791406713</v>
+        <v>0.4613128451007524</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2694,19 +2694,19 @@
         <v>2196</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4837</v>
+        <v>4930</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.3382288711831647</v>
+        <v>0.3382288711831646</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07456320448699524</v>
+        <v>0.07244003673946682</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7449975418940099</v>
+        <v>0.7593490585288963</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2715,19 +2715,19 @@
         <v>3878</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1317</v>
+        <v>1362</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8977</v>
+        <v>8606</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1833312652446171</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06223901130048891</v>
+        <v>0.06435882456061666</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4243356078715407</v>
+        <v>0.406805641477879</v>
       </c>
     </row>
     <row r="33">
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8244</v>
+        <v>8983</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1660104414067111</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5909541283458495</v>
+        <v>0.6439212837935343</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9696</v>
+        <v>9604</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.132441638841466</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5545024318975822</v>
+        <v>0.5492370840150197</v>
       </c>
     </row>
     <row r="35">
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9568</v>
+        <v>9406</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2381191403304635</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.6859113084773523</v>
+        <v>0.6742632306525587</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -2916,19 +2916,19 @@
         <v>6858</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>994</v>
+        <v>1015</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>13184</v>
+        <v>13463</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3921782943196293</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05685613578563214</v>
+        <v>0.05803305642048959</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.7539584940298495</v>
+        <v>0.7699479694455124</v>
       </c>
     </row>
     <row r="36">
@@ -2958,19 +2958,19 @@
         <v>5894</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2078</v>
+        <v>1763</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10867</v>
+        <v>10876</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4225334122180733</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.148951229787821</v>
+        <v>0.1263807983855493</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7790257453187838</v>
+        <v>0.7796562935324255</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6</v>
@@ -2979,19 +2979,19 @@
         <v>5894</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>12327</v>
+        <v>11779</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3370933605455498</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1114088647505086</v>
+        <v>0.111085441647267</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7049684944657653</v>
+        <v>0.6736307092198687</v>
       </c>
     </row>
     <row r="37">
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>9125</v>
+        <v>7563</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1733370060447522</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6541262120109061</v>
+        <v>0.542181240786283</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>8864</v>
+        <v>8868</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.138286706293355</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5069395132557978</v>
+        <v>0.5071710673147107</v>
       </c>
     </row>
     <row r="39">
@@ -3193,19 +3193,19 @@
         <v>3704</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1079</v>
+        <v>1127</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>11314</v>
+        <v>10357</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0381906629374429</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01112584676311487</v>
+        <v>0.01162302076762437</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.116649706924559</v>
+        <v>0.106781532057802</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -3214,19 +3214,19 @@
         <v>4480</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1141</v>
+        <v>1065</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>13713</v>
+        <v>13211</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.06788975476281038</v>
+        <v>0.06788975476281037</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01729413654765912</v>
+        <v>0.01613839703622643</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2077857062693119</v>
+        <v>0.2001780382015587</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>7</v>
@@ -3235,19 +3235,19 @@
         <v>8185</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3310</v>
+        <v>3488</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>17456</v>
+        <v>18208</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.05021608337117536</v>
+        <v>0.05021608337117534</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0203097208490821</v>
+        <v>0.02140068651619017</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1070991575774136</v>
+        <v>0.1117141456322542</v>
       </c>
     </row>
     <row r="41">
@@ -3264,19 +3264,19 @@
         <v>41127</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>27078</v>
+        <v>28369</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>55192</v>
+        <v>54723</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.4240157539707419</v>
+        <v>0.4240157539707418</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2791719429528551</v>
+        <v>0.2924899814440928</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5690262042963815</v>
+        <v>0.5641922940304828</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>14</v>
@@ -3285,19 +3285,19 @@
         <v>17068</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>9898</v>
+        <v>9950</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>26164</v>
+        <v>26488</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2586256810624503</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1499788636826419</v>
+        <v>0.1507679041134311</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3964481208201629</v>
+        <v>0.4013574567074353</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>34</v>
@@ -3306,19 +3306,19 @@
         <v>58195</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>43085</v>
+        <v>43224</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>74524</v>
+        <v>76227</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3570478758287892</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2643433083073286</v>
+        <v>0.2651982974740423</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4572354598915986</v>
+        <v>0.4676830130983576</v>
       </c>
     </row>
     <row r="42">
@@ -3335,19 +3335,19 @@
         <v>17988</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9952</v>
+        <v>9439</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>30303</v>
+        <v>29670</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1854604912778959</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1026089697691386</v>
+        <v>0.09731498997004617</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3124230016025069</v>
+        <v>0.3058941151423222</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>15</v>
@@ -3356,19 +3356,19 @@
         <v>13254</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>7995</v>
+        <v>7710</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>22120</v>
+        <v>21631</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2008312862060588</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1211467030527291</v>
+        <v>0.1168282571066376</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3351741042832903</v>
+        <v>0.3277598751785977</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>28</v>
@@ -3377,19 +3377,19 @@
         <v>31242</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>20782</v>
+        <v>20595</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>44579</v>
+        <v>46425</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1916842597519864</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1275071457548732</v>
+        <v>0.1263593103458217</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2735090784112015</v>
+        <v>0.2848396617172989</v>
       </c>
     </row>
     <row r="43">
@@ -3406,19 +3406,19 @@
         <v>10872</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>4773</v>
+        <v>4375</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>23670</v>
+        <v>22398</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1120872930962533</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04920819640878123</v>
+        <v>0.0451028341543783</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2440424372116562</v>
+        <v>0.2309230187087792</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>10</v>
@@ -3427,19 +3427,19 @@
         <v>10890</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>5371</v>
+        <v>5334</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>19886</v>
+        <v>20190</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.1650125647044539</v>
+        <v>0.1650125647044538</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08138483250670514</v>
+        <v>0.08081690697400946</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3013274851572186</v>
+        <v>0.305935194596237</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>17</v>
@@ -3448,19 +3448,19 @@
         <v>21762</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>13303</v>
+        <v>12651</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>36013</v>
+        <v>36663</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1335171956131536</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.08161953073329735</v>
+        <v>0.07762025602997644</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2209537660789273</v>
+        <v>0.2249429309125922</v>
       </c>
     </row>
     <row r="44">
@@ -3477,19 +3477,19 @@
         <v>23302</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>14162</v>
+        <v>14960</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>35395</v>
+        <v>37499</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2402457987176662</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1460121824358325</v>
+        <v>0.1542390995684452</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3649206490208773</v>
+        <v>0.3866162382416233</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>24</v>
@@ -3498,19 +3498,19 @@
         <v>20303</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>13146</v>
+        <v>13105</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>29943</v>
+        <v>29613</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3076407132642268</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1991951913102173</v>
+        <v>0.1985708256357639</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4537160104981279</v>
+        <v>0.4487212412128646</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>42</v>
@@ -3519,19 +3519,19 @@
         <v>43605</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>32069</v>
+        <v>31653</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>57179</v>
+        <v>58105</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.2675345854348956</v>
+        <v>0.2675345854348954</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1967568809197815</v>
+        <v>0.1942073165175247</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3508180759214911</v>
+        <v>0.3564994823305976</v>
       </c>
     </row>
     <row r="45">
